--- a/Устройства.xlsx
+++ b/Устройства.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Сделка №</t>
   </si>
@@ -108,85 +108,28 @@
 коэффициент</t>
   </si>
   <si>
-    <t>3971</t>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>09.01.2023</t>
+  </si>
+  <si>
+    <t>AT1/M20-IR(CH4-100)-AR-BT0-A</t>
+  </si>
+  <si>
+    <t>метан (CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t>AT2300001</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>AT1/M20-EC(H2S-50)-AR-BT0-A</t>
-  </si>
-  <si>
-    <t>H2S</t>
-  </si>
-  <si>
-    <t>03.11.2023</t>
-  </si>
-  <si>
-    <t>AT2304384</t>
-  </si>
-  <si>
-    <t>4-Series H2S-100</t>
-  </si>
-  <si>
-    <t>SEC390943</t>
-  </si>
-  <si>
-    <t>0-50 млнˉ¹</t>
-  </si>
-  <si>
-    <t>AT1/M20-LEL(CH4-50)-AR-BT0-A</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>AT2304385</t>
-  </si>
-  <si>
-    <t>4LEL-3.0</t>
-  </si>
-  <si>
-    <t>LEL320506</t>
-  </si>
-  <si>
-    <t>0-50 % НКПР</t>
-  </si>
-  <si>
-    <t>3265</t>
-  </si>
-  <si>
-    <t>AT1/M25-IR(CH4-100)-AR-BT0-A</t>
-  </si>
-  <si>
-    <t>AT2304386</t>
-  </si>
-  <si>
-    <t>SJH-5B</t>
-  </si>
-  <si>
-    <t>SIR2160531</t>
-  </si>
-  <si>
-    <t>0-100 % НКПР</t>
-  </si>
-  <si>
-    <t>AT2304387</t>
-  </si>
-  <si>
-    <t>SIR2160811</t>
-  </si>
-  <si>
-    <t>AT2304388</t>
-  </si>
-  <si>
-    <t>SIR2160696</t>
-  </si>
-  <si>
-    <t>AT2304389</t>
-  </si>
-  <si>
-    <t>SIR2160629</t>
+    <t>SIR161745</t>
   </si>
   <si>
     <t xml:space="preserve">        "Код в списке", "Что видит программа"</t>
@@ -586,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD3BF04-D418-45FF-BD04-273D5CFE58DD}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -664,169 +607,6 @@
       <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -851,47 +631,47 @@
   <sheetData>
     <row r="1" ht="28.5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="28.5">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="28.5">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="28.5">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="28.5">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="28.5">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="28.5">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="28.5">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="28.5">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Устройства.xlsx
+++ b/Устройства.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Сделка №</t>
   </si>
@@ -106,30 +106,6 @@
   <si>
     <t xml:space="preserve">Пересчетный 
 коэффициент</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>09.01.2023</t>
-  </si>
-  <si>
-    <t>AT1/M20-IR(CH4-100)-AR-BT0-A</t>
-  </si>
-  <si>
-    <t>метан (CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +</t>
-  </si>
-  <si>
-    <t>AT2300001</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SIR161745</t>
   </si>
   <si>
     <t xml:space="preserve">        "Код в списке", "Что видит программа"</t>
@@ -529,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD3BF04-D418-45FF-BD04-273D5CFE58DD}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -579,35 +555,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -631,47 +578,47 @@
   <sheetData>
     <row r="1" ht="28.5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="28.5">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="28.5">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="28.5">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="28.5">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="28.5">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="28.5">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="28.5">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="28.5">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
